--- a/database_message.xlsx
+++ b/database_message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20190" windowHeight="11385"/>
+    <workbookView windowWidth="27390" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -321,14 +321,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -796,10 +789,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -808,33 +801,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,97 +840,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -942,10 +935,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1270,7 +1263,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1333,7 +1326,7 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
@@ -1353,7 +1346,7 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
@@ -1373,7 +1366,7 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>21</v>
@@ -1393,7 +1386,7 @@
         <v>24</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>25</v>
@@ -1413,7 +1406,7 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>29</v>
@@ -1433,7 +1426,7 @@
         <v>32</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>33</v>
@@ -1453,7 +1446,7 @@
         <v>36</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>37</v>
@@ -1473,7 +1466,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>40</v>
@@ -1493,7 +1486,7 @@
         <v>36</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>43</v>
@@ -1513,7 +1506,7 @@
         <v>46</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>47</v>
@@ -1535,7 +1528,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D5" sqref="D5:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1570,7 +1563,7 @@
         <v>54</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1626,7 +1619,7 @@
         <v>54</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1640,7 +1633,7 @@
         <v>54</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1654,7 +1647,7 @@
         <v>54</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1668,7 +1661,7 @@
         <v>54</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1682,7 +1675,7 @@
         <v>54</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1696,7 +1689,7 @@
         <v>54</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1752,7 +1745,7 @@
         <v>54</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1766,7 +1759,7 @@
         <v>54</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1780,7 +1773,7 @@
         <v>54</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1794,7 +1787,7 @@
         <v>54</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1808,7 +1801,7 @@
         <v>54</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1822,7 +1815,7 @@
         <v>54</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1836,7 +1829,7 @@
         <v>54</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1850,7 +1843,7 @@
         <v>54</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1864,7 +1857,7 @@
         <v>54</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1878,7 +1871,7 @@
         <v>54</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1892,7 +1885,7 @@
         <v>54</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1906,7 +1899,7 @@
         <v>54</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1920,7 +1913,7 @@
         <v>54</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1934,7 +1927,7 @@
         <v>54</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1948,7 +1941,7 @@
         <v>54</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1962,7 +1955,7 @@
         <v>54</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/database_message.xlsx
+++ b/database_message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27390" windowHeight="11385"/>
+    <workbookView windowWidth="29055" windowHeight="13905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="99">
   <si>
     <t>R_name</t>
   </si>
@@ -44,7 +44,7 @@
     <t>lunch,dinner,hot dishes</t>
   </si>
   <si>
-    <t>tomato,egg</t>
+    <t>tomato,100;egg,200</t>
   </si>
   <si>
     <t>Egg pancakes with chives</t>
@@ -56,7 +56,7 @@
     <t>breakfast,staple food</t>
   </si>
   <si>
-    <t>wheat flour,green Chinese onion,egg,butter</t>
+    <t>wheat flour,522;green Chinese onion,300;egg,200;butter,100</t>
   </si>
   <si>
     <t>Braised eggplant</t>
@@ -68,124 +68,127 @@
     <t>dinner,stir-fry</t>
   </si>
   <si>
+    <t>eggplant,600</t>
+  </si>
+  <si>
+    <t>Braised rice with potato, carrot and sausage</t>
+  </si>
+  <si>
+    <t>Peel carrots and potatoes, dice and wash, drain and set aside. Rinse sausage with warm water, dice and set aside. Rinse green beans with warm water and drain. Add salad oil to the oil pan, add diced carrots and potatoes, diced sausages and green beans to stir fry, add salt and raw soy sauce to taste, add a small amount of clear water and cook for 5 minutes, then turn off the heat and set aside. Wash the rice and soak half an hour in advance. Finally, mix steps 3 and 4 together and add water. Set the rice cooker to cooking mode.</t>
+  </si>
+  <si>
+    <t>staple food</t>
+  </si>
+  <si>
+    <t>potato,635;carrot,321;pea,321;rice,900;sausage,600</t>
+  </si>
+  <si>
+    <t>Stir-fried shrimps with three-color mixed vegetables</t>
+  </si>
+  <si>
+    <t>Wash the prawns and marinate them with salt and cooking wine for half an hour. Peel and wash the corn, and remove some corn kernels. Dice cucumber and carrot. Set aside. Blanch the diced carrots and corn kernels in a pot and drain. Put the starch in the shrimps and marinate for another quarter of an hour. Heat up a wok with oil. Fry shrimps over low heat until they turn brown. Remove. Clean the wok, add oil again, stir fry all vegetables, add salt to taste. When the vegetables are cooked, put the shrimps into the wok, stir fry them evenly, add chicken essence to taste and serve.</t>
+  </si>
+  <si>
+    <t>hot dishes,seafood,stir-fry</t>
+  </si>
+  <si>
+    <t>shrimp,99;carrot,133;cucumber,321;corn,563</t>
+  </si>
+  <si>
+    <t>Stir-fried beef with celery</t>
+  </si>
+  <si>
+    <t>Wash the celery, pat it a few times, cut it into pieces and set aside. Slice ginger, spring onion and beef into thin strips. Set aside. Add shredded ginger, cooking wine, starch, salt and oil. Heat oil in wok, add spring onion until fragrant. Stir fry and add beef. Set aside. Leave the oil in the pan and add the celery. Fry for two minutes. Add soy sauce. Stir well and add salt. Add the sauteed beef and stir well.</t>
+  </si>
+  <si>
+    <t>hot dishes,stir-fry,dinner</t>
+  </si>
+  <si>
+    <t>beef,846;celery,321</t>
+  </si>
+  <si>
+    <t>Braised pork with fans</t>
+  </si>
+  <si>
+    <t>Wash the pork belly, pull the knife into a long strip about 3 cm wide, and then cut the knife into a block about 3 cm. Cut the water noodles into long sections with scissors and put them on a plate. Slice shallots and ginger, dice garlic and coriander into small pieces. Put 300g of water into the pot, add the chopped pork, blanch thoroughly and skim off the blood foam, pour into a colander. Heat up 5 grams of salad oil in a wok, add sugar water, simmer slowly until sugar color. Add pork belly and stir-fry to color. Add onion, ginger and garlic, aniseed, bay leaf and cinnamon. Put oyster sauce, salt, MONOsodium glutamate, southern milk, cooking wine, dark soy sauce, add about 350 grams of water. Bring to a boil, cover and simmer for 20 minutes. Add vermicelli and simmer for 5 minutes. Dish out and add coriander.</t>
+  </si>
+  <si>
+    <t>hot dishes,dinner</t>
+  </si>
+  <si>
+    <t>pork,654;fans,1321</t>
+  </si>
+  <si>
+    <t>Cold mutton</t>
+  </si>
+  <si>
+    <t>Cook and slice the lamb and slice the dried beans. Shred onion, coriander and spring onion. Chop the garlic and millet pepper. Put the above ingredients in a large bowl and mix well with the above spices.</t>
+  </si>
+  <si>
+    <t>cold dishes,breakfast,lunch</t>
+  </si>
+  <si>
+    <t>mutton,321;onion,564;pepper,231</t>
+  </si>
+  <si>
+    <t>Tomato and mushroom soup</t>
+  </si>
+  <si>
+    <t>Wash the mushrooms and tear them into small pieces. Eggs into the bowl, add cooking wine and split into egg liquid. Wash the tomatoes, remove the stalks and cut them into small pieces. Pick and wash the chives and cut them into scallions. Add the lard in the pot, add the tomatoes, stir-fry until softened, add salt, stir-fry until softened, add the mushrooms, stir-fry until softened, add the appropriate amount of water, bring to a boil on high fire, turn to low heat, pour in the egg, add pepper and MSG, mix well until boiling, can be out of the pot.</t>
+  </si>
+  <si>
+    <t>potato,999;mushroom,2133;pepper,231</t>
+  </si>
+  <si>
+    <t>Shredded chicken with soy sauce</t>
+  </si>
+  <si>
+    <t>Steam the soaked chicken in ice for 30 minutes. Shred the chicken and mix with the seasonings. Pour the ginger and garlic in hot oil and mix again to taste better</t>
+  </si>
+  <si>
+    <t>chicken,564;green Chinese onion,231</t>
+  </si>
+  <si>
+    <t>Braised tofu with cucumber</t>
+  </si>
+  <si>
+    <t>Prepare the ingredients, add a spoonful of starch to water and stir well. Stir-fry shallots in skillet until fragrant. Add cucumber and diced ham and stir-fry for a while. Add tofu. Add salt to taste, add a little pepper, add a bowl of hot water to boil, turn to medium heat and simmer for 3 minutes. Thicken starch with water, add chicken essence to taste, then add chopped green onion.</t>
+  </si>
+  <si>
+    <t>hot dishes,dinner,stir-fry</t>
+  </si>
+  <si>
+    <t>tofu,654;cucumber,231;sausage,2312;pepper,3213;green Chinese onion,231</t>
+  </si>
+  <si>
+    <t>Ingredients name</t>
+  </si>
+  <si>
+    <t>Types of ingredients</t>
+  </si>
+  <si>
+    <t>igd_opponent</t>
+  </si>
+  <si>
+    <t>igd_calorie</t>
+  </si>
+  <si>
+    <t>potato</t>
+  </si>
+  <si>
+    <t>Tubers</t>
+  </si>
+  <si>
+    <t>tomato</t>
+  </si>
+  <si>
+    <t>carrot</t>
+  </si>
+  <si>
+    <t>Melon and Fruits</t>
+  </si>
+  <si>
     <t>eggplant</t>
-  </si>
-  <si>
-    <t>Braised rice with potato, carrot and sausage</t>
-  </si>
-  <si>
-    <t>Peel carrots and potatoes, dice and wash, drain and set aside. Rinse sausage with warm water, dice and set aside. Rinse green beans with warm water and drain. Add salad oil to the oil pan, add diced carrots and potatoes, diced sausages and green beans to stir fry, add salt and raw soy sauce to taste, add a small amount of clear water and cook for 5 minutes, then turn off the heat and set aside. Wash the rice and soak half an hour in advance. Finally, mix steps 3 and 4 together and add water. Set the rice cooker to cooking mode.</t>
-  </si>
-  <si>
-    <t>staple food</t>
-  </si>
-  <si>
-    <t>potato,carrot,pea,rice,sausage</t>
-  </si>
-  <si>
-    <t>Stir-fried shrimps with three-color mixed vegetables</t>
-  </si>
-  <si>
-    <t>Wash the prawns and marinate them with salt and cooking wine for half an hour. Peel and wash the corn, and remove some corn kernels. Dice cucumber and carrot. Set aside. Blanch the diced carrots and corn kernels in a pot and drain. Put the starch in the shrimps and marinate for another quarter of an hour. Heat up a wok with oil. Fry shrimps over low heat until they turn brown. Remove. Clean the wok, add oil again, stir fry all vegetables, add salt to taste. When the vegetables are cooked, put the shrimps into the wok, stir fry them evenly, add chicken essence to taste and serve.</t>
-  </si>
-  <si>
-    <t>hot dishes,seafood,stir-fry</t>
-  </si>
-  <si>
-    <t>shrimp,carrot,cucumber,corn</t>
-  </si>
-  <si>
-    <t>Stir-fried beef with celery</t>
-  </si>
-  <si>
-    <t>Wash the celery, pat it a few times, cut it into pieces and set aside. Slice ginger, spring onion and beef into thin strips. Set aside. Add shredded ginger, cooking wine, starch, salt and oil. Heat oil in wok, add spring onion until fragrant. Stir fry and add beef. Set aside. Leave the oil in the pan and add the celery. Fry for two minutes. Add soy sauce. Stir well and add salt. Add the sauteed beef and stir well.</t>
-  </si>
-  <si>
-    <t>hot dishes,stir-fry,dinner</t>
-  </si>
-  <si>
-    <t>beef,celery</t>
-  </si>
-  <si>
-    <t>Braised pork with fans</t>
-  </si>
-  <si>
-    <t>Wash the pork belly, pull the knife into a long strip about 3 cm wide, and then cut the knife into a block about 3 cm. Cut the water noodles into long sections with scissors and put them on a plate. Slice shallots and ginger, dice garlic and coriander into small pieces. Put 300g of water into the pot, add the chopped pork, blanch thoroughly and skim off the blood foam, pour into a colander. Heat up 5 grams of salad oil in a wok, add sugar water, simmer slowly until sugar color. Add pork belly and stir-fry to color. Add onion, ginger and garlic, aniseed, bay leaf and cinnamon. Put oyster sauce, salt, MONOsodium glutamate, southern milk, cooking wine, dark soy sauce, add about 350 grams of water. Bring to a boil, cover and simmer for 20 minutes. Add vermicelli and simmer for 5 minutes. Dish out and add coriander.</t>
-  </si>
-  <si>
-    <t>hot dishes,dinner</t>
-  </si>
-  <si>
-    <t>pork,fans</t>
-  </si>
-  <si>
-    <t>Cold mutton</t>
-  </si>
-  <si>
-    <t>Cook and slice the lamb and slice the dried beans. Shred onion, coriander and spring onion. Chop the garlic and millet pepper. Put the above ingredients in a large bowl and mix well with the above spices.</t>
-  </si>
-  <si>
-    <t>cold dishes,breakfast,lunch</t>
-  </si>
-  <si>
-    <t>mutton,onion,pepper</t>
-  </si>
-  <si>
-    <t>Tomato and mushroom soup</t>
-  </si>
-  <si>
-    <t>Wash the mushrooms and tear them into small pieces. Eggs into the bowl, add cooking wine and split into egg liquid. Wash the tomatoes, remove the stalks and cut them into small pieces. Pick and wash the chives and cut them into scallions. Add the lard in the pot, add the tomatoes, stir-fry until softened, add salt, stir-fry until softened, add the mushrooms, stir-fry until softened, add the appropriate amount of water, bring to a boil on high fire, turn to low heat, pour in the egg, add pepper and MSG, mix well until boiling, can be out of the pot.</t>
-  </si>
-  <si>
-    <t>potato,mushroom,pepper</t>
-  </si>
-  <si>
-    <t>Shredded chicken with soy sauce</t>
-  </si>
-  <si>
-    <t>Steam the soaked chicken in ice for 30 minutes. Shred the chicken and mix with the seasonings. Pour the ginger and garlic in hot oil and mix again to taste better</t>
-  </si>
-  <si>
-    <t>chicken,green Chinese onion</t>
-  </si>
-  <si>
-    <t>Braised tofu with cucumber</t>
-  </si>
-  <si>
-    <t>Prepare the ingredients, add a spoonful of starch to water and stir well. Stir-fry shallots in skillet until fragrant. Add cucumber and diced ham and stir-fry for a while. Add tofu. Add salt to taste, add a little pepper, add a bowl of hot water to boil, turn to medium heat and simmer for 3 minutes. Thicken starch with water, add chicken essence to taste, then add chopped green onion.</t>
-  </si>
-  <si>
-    <t>hot dishes,dinner,stir-fry</t>
-  </si>
-  <si>
-    <t>tofu,cucumber,sausage,pepper,green Chinese onion</t>
-  </si>
-  <si>
-    <t>Ingredients name</t>
-  </si>
-  <si>
-    <t>Types of ingredients</t>
-  </si>
-  <si>
-    <t>igd_opponent</t>
-  </si>
-  <si>
-    <t>igd_calorie</t>
-  </si>
-  <si>
-    <t>potato</t>
-  </si>
-  <si>
-    <t>Tubers</t>
-  </si>
-  <si>
-    <t>tomato</t>
-  </si>
-  <si>
-    <t>carrot</t>
-  </si>
-  <si>
-    <t>Melon and Fruits</t>
   </si>
   <si>
     <t>cucumber</t>
@@ -1263,7 +1266,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1596,7 +1599,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>56</v>
@@ -1610,7 +1613,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>56</v>
@@ -1624,10 +1627,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
@@ -1638,10 +1641,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
         <v>54</v>
@@ -1652,10 +1655,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
@@ -1666,10 +1669,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
         <v>54</v>
@@ -1680,10 +1683,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
         <v>54</v>
@@ -1694,10 +1697,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
@@ -1708,10 +1711,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
         <v>54</v>
@@ -1722,10 +1725,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
         <v>54</v>
@@ -1736,10 +1739,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C15" t="s">
         <v>54</v>
@@ -1750,10 +1753,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
         <v>54</v>
@@ -1764,10 +1767,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
         <v>54</v>
@@ -1778,10 +1781,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
         <v>54</v>
@@ -1792,10 +1795,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C19" t="s">
         <v>54</v>
@@ -1806,10 +1809,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
         <v>54</v>
@@ -1820,10 +1823,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
         <v>54</v>
@@ -1834,10 +1837,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
         <v>54</v>
@@ -1848,10 +1851,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
         <v>54</v>
@@ -1862,10 +1865,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
         <v>54</v>
@@ -1876,10 +1879,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
         <v>54</v>
@@ -1890,10 +1893,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C26" t="s">
         <v>54</v>
@@ -1904,10 +1907,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
         <v>54</v>
@@ -1918,10 +1921,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
         <v>54</v>
@@ -1932,10 +1935,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
         <v>54</v>
@@ -1946,10 +1949,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
         <v>54</v>
